--- a/Aula03/Produtos Novo.xlsx
+++ b/Aula03/Produtos Novo.xlsx
@@ -462,16 +462,16 @@
         <v>14</v>
       </c>
       <c r="D2">
-        <v>5.16</v>
+        <v>5.1737</v>
       </c>
       <c r="E2">
-        <v>5159.9484</v>
+        <v>5173.648263</v>
       </c>
       <c r="F2">
         <v>1.4</v>
       </c>
       <c r="G2">
-        <v>7223.92776</v>
+        <v>7243.107568199999</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -485,16 +485,16 @@
         <v>15</v>
       </c>
       <c r="D3">
-        <v>5.556675</v>
+        <v>5.5661</v>
       </c>
       <c r="E3">
-        <v>25005.0375</v>
+        <v>25047.45</v>
       </c>
       <c r="F3">
         <v>2</v>
       </c>
       <c r="G3">
-        <v>50010.075</v>
+        <v>50094.89999999999</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -508,16 +508,16 @@
         <v>14</v>
       </c>
       <c r="D4">
-        <v>5.16</v>
+        <v>5.1737</v>
       </c>
       <c r="E4">
-        <v>4643.9484</v>
+        <v>4656.278263</v>
       </c>
       <c r="F4">
         <v>1.7</v>
       </c>
       <c r="G4">
-        <v>7894.71228</v>
+        <v>7915.6730471</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -531,16 +531,16 @@
         <v>14</v>
       </c>
       <c r="D5">
-        <v>5.16</v>
+        <v>5.1737</v>
       </c>
       <c r="E5">
-        <v>4122.84</v>
+        <v>4133.7863</v>
       </c>
       <c r="F5">
         <v>1.7</v>
       </c>
       <c r="G5">
-        <v>7008.828</v>
+        <v>7027.436709999999</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -554,16 +554,16 @@
         <v>15</v>
       </c>
       <c r="D6">
-        <v>5.556675</v>
+        <v>5.5661</v>
       </c>
       <c r="E6">
-        <v>16670.025</v>
+        <v>16698.3</v>
       </c>
       <c r="F6">
         <v>1.9</v>
       </c>
       <c r="G6">
-        <v>31673.0475</v>
+        <v>31726.77</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -577,16 +577,16 @@
         <v>14</v>
       </c>
       <c r="D7">
-        <v>5.16</v>
+        <v>5.1737</v>
       </c>
       <c r="E7">
-        <v>2479.2768</v>
+        <v>2485.859376</v>
       </c>
       <c r="F7">
         <v>2</v>
       </c>
       <c r="G7">
-        <v>4958.5536</v>
+        <v>4971.718752000001</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -600,16 +600,16 @@
         <v>16</v>
       </c>
       <c r="D8">
-        <v>311.97</v>
+        <v>314.27</v>
       </c>
       <c r="E8">
-        <v>6239.400000000001</v>
+        <v>6285.4</v>
       </c>
       <c r="F8">
         <v>1.15</v>
       </c>
       <c r="G8">
-        <v>7175.31</v>
+        <v>7228.209999999999</v>
       </c>
     </row>
   </sheetData>

--- a/Aula03/Produtos Novo.xlsx
+++ b/Aula03/Produtos Novo.xlsx
@@ -462,16 +462,16 @@
         <v>14</v>
       </c>
       <c r="D2">
-        <v>5.1737</v>
+        <v>5.096</v>
       </c>
       <c r="E2">
-        <v>5173.648263</v>
+        <v>5095.94904</v>
       </c>
       <c r="F2">
         <v>1.4</v>
       </c>
       <c r="G2">
-        <v>7243.107568199999</v>
+        <v>7134.328656000001</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -485,16 +485,16 @@
         <v>15</v>
       </c>
       <c r="D3">
-        <v>5.5661</v>
+        <v>5.528395600000001</v>
       </c>
       <c r="E3">
-        <v>25047.45</v>
+        <v>24877.7802</v>
       </c>
       <c r="F3">
         <v>2</v>
       </c>
       <c r="G3">
-        <v>50094.89999999999</v>
+        <v>49755.5604</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -508,16 +508,16 @@
         <v>14</v>
       </c>
       <c r="D4">
-        <v>5.1737</v>
+        <v>5.096</v>
       </c>
       <c r="E4">
-        <v>4656.278263</v>
+        <v>4586.34904</v>
       </c>
       <c r="F4">
         <v>1.7</v>
       </c>
       <c r="G4">
-        <v>7915.6730471</v>
+        <v>7796.793368</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -531,16 +531,16 @@
         <v>14</v>
       </c>
       <c r="D5">
-        <v>5.1737</v>
+        <v>5.096</v>
       </c>
       <c r="E5">
-        <v>4133.7863</v>
+        <v>4071.704</v>
       </c>
       <c r="F5">
         <v>1.7</v>
       </c>
       <c r="G5">
-        <v>7027.436709999999</v>
+        <v>6921.8968</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -554,16 +554,16 @@
         <v>15</v>
       </c>
       <c r="D6">
-        <v>5.5661</v>
+        <v>5.528395600000001</v>
       </c>
       <c r="E6">
-        <v>16698.3</v>
+        <v>16585.1868</v>
       </c>
       <c r="F6">
         <v>1.9</v>
       </c>
       <c r="G6">
-        <v>31726.77</v>
+        <v>31511.85492000001</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -577,16 +577,16 @@
         <v>14</v>
       </c>
       <c r="D7">
-        <v>5.1737</v>
+        <v>5.096</v>
       </c>
       <c r="E7">
-        <v>2485.859376</v>
+        <v>2448.52608</v>
       </c>
       <c r="F7">
         <v>2</v>
       </c>
       <c r="G7">
-        <v>4971.718752000001</v>
+        <v>4897.05216</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -600,16 +600,16 @@
         <v>16</v>
       </c>
       <c r="D8">
-        <v>314.27</v>
+        <v>315.12</v>
       </c>
       <c r="E8">
-        <v>6285.4</v>
+        <v>6302.4</v>
       </c>
       <c r="F8">
         <v>1.15</v>
       </c>
       <c r="G8">
-        <v>7228.209999999999</v>
+        <v>7247.759999999999</v>
       </c>
     </row>
   </sheetData>
